--- a/data/co2/Aus spot.xlsx
+++ b/data/co2/Aus spot.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yl5888\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimyhc/Desktop/research/co2_forecasting/data/co2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5DBFEC-043A-2548-BDDB-047485119588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10392" yWindow="-108" windowWidth="14856" windowHeight="12732"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -69,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -557,7 +571,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -585,7 +599,7 @@
     <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="blp_datetime" xfId="42"/>
+    <cellStyle name="blp_datetime" xfId="42" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
@@ -617,43 +631,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7880384042857737863</stp>
-        <tr r="A8" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4649209272255577227</stp>
-        <tr r="K8" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7090139497914622973</stp>
-        <tr r="H8" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5104998831839622508</stp>
-        <tr r="E8" s="2"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -691,9 +672,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,7 +709,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -763,7 +744,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -936,19 +917,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M833"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M831"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N754" sqref="N754"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -956,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -964,7 +947,7 @@
         <v>44714</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -972,7 +955,7 @@
         <v>45996</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -980,7 +963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -988,7 +971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1029,10 +1012,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <f>_xll.BDH(B1,B7,B2,B3,"Dir=V","Dts=S","Sort=D","Quote=C","QtTyp=P","Days=T",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y",CONCATENATE("FX=",B5),"cols=2;rows=826")</f>
-        <v>45996</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="e">
+        <f ca="1">_xll.BDH(B1,B7,B2,B3,"Dir=V","Dts=S","Sort=D","Quote=C","QtTyp=P","Days=T",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y",CONCATENATE("FX=",B5),"cols=2;rows=826")</f>
+        <v>#NAME?</v>
       </c>
       <c r="B8">
         <v>35.700000000000003</v>
@@ -1045,44 +1028,44 @@
         <f t="shared" ref="D8:D71" si="1">IF(AND(ISNUMBER(C8), ISNUMBER(B9)), (100*(C8)/ABS(B9)), "")</f>
         <v>0</v>
       </c>
-      <c r="E8">
-        <f>_xll.BDH(B1,E7,B2,B3,"Dir=V","Sort=D","Quote=C","QtTyp=P","Days=T","Dates=H",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y",CONCATENATE("FX=",B5),"cols=1;rows=774")</f>
-        <v>35.700000000000003</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ref="F8:F71" si="2">IF(AND(ISNUMBER(E8), ISNUMBER(B9)), (E8 - B9), "")</f>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ref="G8:G71" si="3">IF(AND(ISNUMBER(F8), ISNUMBER(B9)), (100*(F8)/ABS(B9)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f>_xll.BDH(B1,H7,B2,B3,"Dir=V","Sort=D","Quote=C","QtTyp=P","Days=T","Dates=H",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y",CONCATENATE("FX=",B5),"cols=1;rows=774")</f>
-        <v>35.700000000000003</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ref="I8:I71" si="4">IF(AND(ISNUMBER(H8), ISNUMBER(B9)), (H8 - B9), "")</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ref="J8:J71" si="5">IF(AND(ISNUMBER(I8), ISNUMBER(B9)), (100*(I8)/ABS(B9)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f>_xll.BDH(B1,K7,B2,B3,"Dir=V","Sort=D","Quote=C","QtTyp=P","Days=T","Dates=H",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y",CONCATENATE("FX=",B5),"cols=1;rows=774")</f>
-        <v>35.700000000000003</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ref="L8:L71" si="6">IF(AND(ISNUMBER(K8), ISNUMBER(B9)), (K8 - B9),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ref="M8:M71" si="7">IF(AND(ISNUMBER(L8), ISNUMBER(B9)), (100*(L8)/ABS(B9)), "")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E8" t="e">
+        <f ca="1">_xll.BDH(B1,E7,B2,B3,"Dir=V","Sort=D","Quote=C","QtTyp=P","Days=T","Dates=H",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y",CONCATENATE("FX=",B5),"cols=1;rows=774")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ref="F8:F71" ca="1" si="2">IF(AND(ISNUMBER(E8), ISNUMBER(B9)), (E8 - B9), "")</f>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" ref="G8:G71" ca="1" si="3">IF(AND(ISNUMBER(F8), ISNUMBER(B9)), (100*(F8)/ABS(B9)), "")</f>
+        <v/>
+      </c>
+      <c r="H8" t="e">
+        <f ca="1">_xll.BDH(B1,H7,B2,B3,"Dir=V","Sort=D","Quote=C","QtTyp=P","Days=T","Dates=H",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y",CONCATENATE("FX=",B5),"cols=1;rows=774")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I71" ca="1" si="4">IF(AND(ISNUMBER(H8), ISNUMBER(B9)), (H8 - B9), "")</f>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" ref="J8:J71" ca="1" si="5">IF(AND(ISNUMBER(I8), ISNUMBER(B9)), (100*(I8)/ABS(B9)), "")</f>
+        <v/>
+      </c>
+      <c r="K8" t="e">
+        <f ca="1">_xll.BDH(B1,K7,B2,B3,"Dir=V","Sort=D","Quote=C","QtTyp=P","Days=T","Dates=H",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y",CONCATENATE("FX=",B5),"cols=1;rows=774")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" ref="L8:L71" ca="1" si="6">IF(AND(ISNUMBER(K8), ISNUMBER(B9)), (K8 - B9),"")</f>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" ref="M8:M71" ca="1" si="7">IF(AND(ISNUMBER(L8), ISNUMBER(B9)), (100*(L8)/ABS(B9)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45995</v>
       </c>
@@ -1131,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45994</v>
       </c>
@@ -1180,7 +1163,7 @@
         <v>-1.1142061281337008</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45993</v>
       </c>
@@ -1229,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45992</v>
       </c>
@@ -1278,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45989</v>
       </c>
@@ -1327,7 +1310,7 @@
         <v>-0.41782729805013535</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45988</v>
       </c>
@@ -1376,7 +1359,7 @@
         <v>-1.3736263736263736</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45987</v>
       </c>
@@ -1425,7 +1408,7 @@
         <v>-0.2739726027397299</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45986</v>
       </c>
@@ -1474,7 +1457,7 @@
         <v>-0.13698630136985523</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45985</v>
       </c>
@@ -1523,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45982</v>
       </c>
@@ -1572,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45981</v>
       </c>
@@ -1621,7 +1604,7 @@
         <v>-0.27322404371585085</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45980</v>
       </c>
@@ -1670,7 +1653,7 @@
         <v>-0.40816326530611857</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45979</v>
       </c>
@@ -1719,7 +1702,7 @@
         <v>-0.67567567567567566</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45978</v>
       </c>
@@ -1768,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45975</v>
       </c>
@@ -1817,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45974</v>
       </c>
@@ -1866,7 +1849,7 @@
         <v>-3.2042723631508752</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45973</v>
       </c>
@@ -1915,7 +1898,7 @@
         <v>-0.7947019867549594</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45972</v>
       </c>
@@ -1964,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45971</v>
       </c>
@@ -2013,7 +1996,7 @@
         <v>-2.6212319790301444</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45968</v>
       </c>
@@ -2062,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45967</v>
       </c>
@@ -2111,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45966</v>
       </c>
@@ -2160,7 +2143,7 @@
         <v>-1.1658031088082974</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45965</v>
       </c>
@@ -2209,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45964</v>
       </c>
@@ -2258,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45961</v>
       </c>
@@ -2307,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45960</v>
       </c>
@@ -2356,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45959</v>
       </c>
@@ -2405,7 +2388,7 @@
         <v>-0.26075619295958646</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45958</v>
       </c>
@@ -2454,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45957</v>
       </c>
@@ -2503,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45954</v>
       </c>
@@ -2552,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>45953</v>
       </c>
@@ -2601,7 +2584,7 @@
         <v>-0.38961038961038591</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>45952</v>
       </c>
@@ -2650,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>45951</v>
       </c>
@@ -2699,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45950</v>
       </c>
@@ -2748,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>45947</v>
       </c>
@@ -2797,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>45946</v>
       </c>
@@ -2846,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45945</v>
       </c>
@@ -2895,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45944</v>
       </c>
@@ -2944,7 +2927,7 @@
         <v>-0.78328981723236857</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45943</v>
       </c>
@@ -2993,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45940</v>
       </c>
@@ -3042,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45939</v>
       </c>
@@ -3091,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>45938</v>
       </c>
@@ -3140,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>45937</v>
       </c>
@@ -3189,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>45936</v>
       </c>
@@ -3238,7 +3221,7 @@
         <v>-0.26315789473684587</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>45933</v>
       </c>
@@ -3287,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>45932</v>
       </c>
@@ -3336,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>45931</v>
       </c>
@@ -3385,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>45930</v>
       </c>
@@ -3434,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>45929</v>
       </c>
@@ -3483,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>45926</v>
       </c>
@@ -3532,7 +3515,7 @@
         <v>-1.3404825737265416</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>45925</v>
       </c>
@@ -3581,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>45924</v>
       </c>
@@ -3630,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>45923</v>
       </c>
@@ -3679,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>45922</v>
       </c>
@@ -3728,7 +3711,7 @@
         <v>-0.54200542005418906</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>45919</v>
       </c>
@@ -3777,7 +3760,7 @@
         <v>-0.94466936572198201</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>45918</v>
       </c>
@@ -3826,7 +3809,7 @@
         <v>-1.2000000000000075</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>45917</v>
       </c>
@@ -3875,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>45916</v>
       </c>
@@ -3924,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>45915</v>
       </c>
@@ -3973,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>45912</v>
       </c>
@@ -4022,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>45911</v>
       </c>
@@ -4071,7 +4054,7 @@
         <v>-0.79999999999999238</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>45910</v>
       </c>
@@ -4120,7 +4103,7 @@
         <v>-0.39840637450198829</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>45909</v>
       </c>
@@ -4169,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>45908</v>
       </c>
@@ -4218,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>45905</v>
       </c>
@@ -4267,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>45904</v>
       </c>
@@ -4316,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>45903</v>
       </c>
@@ -4365,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>45902</v>
       </c>
@@ -4414,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>45901</v>
       </c>
@@ -4463,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>45898</v>
       </c>
@@ -4512,7 +4495,7 @@
         <v>-0.27027027027027412</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>45897</v>
       </c>
@@ -4561,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>45896</v>
       </c>
@@ -4610,7 +4593,7 @@
         <v>-1.6000000000000039</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>45895</v>
       </c>
@@ -4659,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>45894</v>
       </c>
@@ -4708,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>45891</v>
       </c>
@@ -4757,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>45890</v>
       </c>
@@ -4806,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>45889</v>
       </c>
@@ -4855,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>45888</v>
       </c>
@@ -4904,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>45887</v>
       </c>
@@ -4953,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>45884</v>
       </c>
@@ -5002,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>45883</v>
       </c>
@@ -5051,7 +5034,7 @@
         <v>-1.1142061281337008</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>45882</v>
       </c>
@@ -5100,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>45881</v>
       </c>
@@ -5149,7 +5132,7 @@
         <v>-0.41608876560332481</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>45880</v>
       </c>
@@ -5198,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>45877</v>
       </c>
@@ -5247,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>45876</v>
       </c>
@@ -5296,7 +5279,7 @@
         <v>-0.27777777777778173</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>45875</v>
       </c>
@@ -5345,7 +5328,7 @@
         <v>-0.96286107290234224</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>45874</v>
       </c>
@@ -5394,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>45873</v>
       </c>
@@ -5443,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>45870</v>
       </c>
@@ -5492,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>45869</v>
       </c>
@@ -5541,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>45868</v>
       </c>
@@ -5590,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>45867</v>
       </c>
@@ -5639,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>45866</v>
       </c>
@@ -5688,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>45863</v>
       </c>
@@ -5737,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>45862</v>
       </c>
@@ -5786,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>45861</v>
       </c>
@@ -5835,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>45860</v>
       </c>
@@ -5884,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>45859</v>
       </c>
@@ -5933,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>45856</v>
       </c>
@@ -5982,7 +5965,7 @@
         <v>-0.87463556851311131</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>45855</v>
       </c>
@@ -6031,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>45854</v>
       </c>
@@ -6080,7 +6063,7 @@
         <v>-0.29069767441860878</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>45853</v>
       </c>
@@ -6129,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>45852</v>
       </c>
@@ -6178,7 +6161,7 @@
         <v>-1.0144927536231925</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>45849</v>
       </c>
@@ -6227,7 +6210,7 @@
         <v>-0.86206896551723333</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>45848</v>
       </c>
@@ -6276,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>45847</v>
       </c>
@@ -6325,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>45846</v>
       </c>
@@ -6374,7 +6357,7 @@
         <v>-0.71326676176890158</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>45845</v>
       </c>
@@ -6423,7 +6406,7 @@
         <v>-0.56737588652483073</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>45842</v>
       </c>
@@ -6472,7 +6455,7 @@
         <v>-0.56417489421721534</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>45841</v>
       </c>
@@ -6521,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>45840</v>
       </c>
@@ -6570,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>45839</v>
       </c>
@@ -6619,7 +6602,7 @@
         <v>-1.2693935119887245</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>45838</v>
       </c>
@@ -6668,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>45835</v>
       </c>
@@ -6717,7 +6700,7 @@
         <v>-0.1408450704225272</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>45834</v>
       </c>
@@ -6766,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>45833</v>
       </c>
@@ -6815,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>45832</v>
       </c>
@@ -6864,7 +6847,7 @@
         <v>-0.14064697609000609</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>45831</v>
       </c>
@@ -6913,7 +6896,7 @@
         <v>-0.14044943820225916</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>45828</v>
       </c>
@@ -6962,7 +6945,7 @@
         <v>-0.28011204481793112</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>45827</v>
       </c>
@@ -7011,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>45826</v>
       </c>
@@ -7060,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>45825</v>
       </c>
@@ -7109,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>45824</v>
       </c>
@@ -7158,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>45821</v>
       </c>
@@ -7207,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>45820</v>
       </c>
@@ -7256,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>45819</v>
       </c>
@@ -7305,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>45818</v>
       </c>
@@ -7354,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>45817</v>
       </c>
@@ -7403,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>45814</v>
       </c>
@@ -7452,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>45813</v>
       </c>
@@ -7501,7 +7484,7 @@
         <v>-0.30898876404494219</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>45812</v>
       </c>
@@ -7550,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>45811</v>
       </c>
@@ -7599,7 +7582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>45810</v>
       </c>
@@ -7648,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>45807</v>
       </c>
@@ -7697,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>45806</v>
       </c>
@@ -7746,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>45805</v>
       </c>
@@ -7795,7 +7778,7 @@
         <v>-0.56179775280899669</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>45804</v>
       </c>
@@ -7844,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>45803</v>
       </c>
@@ -7893,7 +7876,7 @@
         <v>-0.55865921787708306</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>45800</v>
       </c>
@@ -7942,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>45799</v>
       </c>
@@ -7991,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>45798</v>
       </c>
@@ -8040,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>45797</v>
       </c>
@@ -8089,7 +8072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>45796</v>
       </c>
@@ -8138,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>45793</v>
       </c>
@@ -8187,7 +8170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>45792</v>
       </c>
@@ -8236,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>45791</v>
       </c>
@@ -8285,7 +8268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>45790</v>
       </c>
@@ -8334,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>45789</v>
       </c>
@@ -8383,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>45786</v>
       </c>
@@ -8432,7 +8415,7 @@
         <v>-0.70921985815602839</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>45785</v>
       </c>
@@ -8481,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>45784</v>
       </c>
@@ -8530,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>45783</v>
       </c>
@@ -8579,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>45782</v>
       </c>
@@ -8628,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>45779</v>
       </c>
@@ -8677,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>45778</v>
       </c>
@@ -8726,7 +8709,7 @@
         <v>-0.86083213773315426</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>45777</v>
       </c>
@@ -8775,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>45776</v>
       </c>
@@ -8824,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>45775</v>
       </c>
@@ -8873,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>45772</v>
       </c>
@@ -8922,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>45771</v>
       </c>
@@ -8971,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>45770</v>
       </c>
@@ -9020,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>45769</v>
       </c>
@@ -9069,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>45768</v>
       </c>
@@ -9118,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>45765</v>
       </c>
@@ -9167,7 +9150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>45764</v>
       </c>
@@ -9216,7 +9199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>45763</v>
       </c>
@@ -9265,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>45762</v>
       </c>
@@ -9314,7 +9297,7 @@
         <v>-2.2058823529411766</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>45761</v>
       </c>
@@ -9363,7 +9346,7 @@
         <v>-0.87463556851311131</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>45758</v>
       </c>
@@ -9412,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>45757</v>
       </c>
@@ -9461,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>45756</v>
       </c>
@@ -9510,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>45755</v>
       </c>
@@ -9559,7 +9542,7 @@
         <v>-1.026392961876837</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>45754</v>
       </c>
@@ -9608,7 +9591,7 @@
         <v>-0.72780203784570596</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>45751</v>
       </c>
@@ -9657,7 +9640,7 @@
         <v>-0.43478260869564805</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>45750</v>
       </c>
@@ -9706,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>45749</v>
       </c>
@@ -9755,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>45748</v>
       </c>
@@ -9804,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>45747</v>
       </c>
@@ -9853,7 +9836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>45744</v>
       </c>
@@ -9902,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>45743</v>
       </c>
@@ -9951,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>45742</v>
       </c>
@@ -10000,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>45741</v>
       </c>
@@ -10049,7 +10032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>45740</v>
       </c>
@@ -10098,7 +10081,7 @@
         <v>-1.6641452344931837</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>45737</v>
       </c>
@@ -10147,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>45736</v>
       </c>
@@ -10196,7 +10179,7 @@
         <v>-1.3432835820895608</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>45735</v>
       </c>
@@ -10245,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>45734</v>
       </c>
@@ -10294,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>45733</v>
       </c>
@@ -10343,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>45730</v>
       </c>
@@ -10392,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>45729</v>
       </c>
@@ -10441,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>45728</v>
       </c>
@@ -10490,7 +10473,7 @@
         <v>-0.30075187969925238</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>45727</v>
       </c>
@@ -10539,7 +10522,7 @@
         <v>-1.7991004497751166</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>45726</v>
       </c>
@@ -10588,7 +10571,7 @@
         <v>-0.44776119402984649</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>45723</v>
       </c>
@@ -10637,7 +10620,7 @@
         <v>-0.7407407407407407</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>45722</v>
       </c>
@@ -10686,7 +10669,7 @@
         <v>-0.73529411764705888</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>45721</v>
       </c>
@@ -10735,7 +10718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>45720</v>
       </c>
@@ -10784,7 +10767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>45719</v>
       </c>
@@ -10833,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>45716</v>
       </c>
@@ -10882,7 +10865,7 @@
         <v>-2.8985507246376812</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>45715</v>
       </c>
@@ -10931,7 +10914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>45714</v>
       </c>
@@ -10980,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>45713</v>
       </c>
@@ -11029,7 +11012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>45712</v>
       </c>
@@ -11078,7 +11061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>45709</v>
       </c>
@@ -11127,7 +11110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>45708</v>
       </c>
@@ -11176,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>45707</v>
       </c>
@@ -11225,7 +11208,7 @@
         <v>-0.72463768115942029</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>45706</v>
       </c>
@@ -11274,7 +11257,7 @@
         <v>-0.57636887608069975</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>45705</v>
       </c>
@@ -11323,7 +11306,7 @@
         <v>-1.5602836879432544</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>45702</v>
       </c>
@@ -11372,7 +11355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>45701</v>
       </c>
@@ -11421,7 +11404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>45700</v>
       </c>
@@ -11470,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>45699</v>
       </c>
@@ -11519,7 +11502,7 @@
         <v>-0.14814814814813973</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>45698</v>
       </c>
@@ -11568,7 +11551,7 @@
         <v>-1.8895348837209263</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>45695</v>
       </c>
@@ -11617,7 +11600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>45694</v>
       </c>
@@ -11666,7 +11649,7 @@
         <v>-1.1494252873563178</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>45693</v>
       </c>
@@ -11715,7 +11698,7 @@
         <v>-1.41643059490085</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>45692</v>
       </c>
@@ -11764,7 +11747,7 @@
         <v>-0.28248587570621869</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>45691</v>
       </c>
@@ -11813,7 +11796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>45688</v>
       </c>
@@ -11862,7 +11845,7 @@
         <v>-0.14265335235377222</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>45687</v>
       </c>
@@ -11911,7 +11894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>45686</v>
       </c>
@@ -11960,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>45685</v>
       </c>
@@ -12009,7 +11992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>45684</v>
       </c>
@@ -12058,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>45681</v>
       </c>
@@ -12107,7 +12090,7 @@
         <v>-1.4534883720930234</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>45680</v>
       </c>
@@ -12156,7 +12139,7 @@
         <v>-1.0071942446043207</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>45679</v>
       </c>
@@ -12205,7 +12188,7 @@
         <v>-0.88105726872245871</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>45678</v>
       </c>
@@ -12254,7 +12237,7 @@
         <v>-3.8135593220339024</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>45677</v>
       </c>
@@ -12303,7 +12286,7 @@
         <v>-0.70126227208976155</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>45674</v>
       </c>
@@ -12352,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>45673</v>
       </c>
@@ -12401,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>45672</v>
       </c>
@@ -12450,7 +12433,7 @@
         <v>-1.1412268188302386</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>45671</v>
       </c>
@@ -12499,7 +12482,7 @@
         <v>-1.8207282913165423</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>45670</v>
       </c>
@@ -12548,7 +12531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>45667</v>
       </c>
@@ -12597,7 +12580,7 @@
         <v>-1.9230769230769114</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>45666</v>
       </c>
@@ -12646,7 +12629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>45665</v>
       </c>
@@ -12695,7 +12678,7 @@
         <v>-3.1377899045020428</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>45664</v>
       </c>
@@ -12744,7 +12727,7 @@
         <v>-0.68027210884353739</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>45663</v>
       </c>
@@ -12793,7 +12776,7 @@
         <v>-0.13679890560874736</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>45660</v>
       </c>
@@ -12842,7 +12825,7 @@
         <v>-0.81521739130434012</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>45659</v>
       </c>
@@ -12891,7 +12874,7 @@
         <v>-0.81521739130434012</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>45658</v>
       </c>
@@ -12940,7 +12923,7 @@
         <v>-0.81521739130434012</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>45657</v>
       </c>
@@ -12989,7 +12972,7 @@
         <v>0.82191780821917027</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>45656</v>
       </c>
@@ -13038,7 +13021,7 @@
         <v>-0.81521739130434012</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>45653</v>
       </c>
@@ -13087,7 +13070,7 @@
         <v>-0.81521739130434012</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>45652</v>
       </c>
@@ -13136,7 +13119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>45651</v>
       </c>
@@ -13185,7 +13168,7 @@
         <v>-0.81521739130434012</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>45650</v>
       </c>
@@ -13234,7 +13217,7 @@
         <v>-0.40927694406548043</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>45649</v>
       </c>
@@ -13283,7 +13266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>45646</v>
       </c>
@@ -13332,7 +13315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>45645</v>
       </c>
@@ -13381,7 +13364,7 @@
         <v>-2.4291497975708465</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>45644</v>
       </c>
@@ -13430,7 +13413,7 @@
         <v>-0.1347708894878821</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>45643</v>
       </c>
@@ -13479,7 +13462,7 @@
         <v>-1.4608233731739633</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>45642</v>
       </c>
@@ -13528,7 +13511,7 @@
         <v>-1.4397905759162415</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>45639</v>
       </c>
@@ -13577,7 +13560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>45638</v>
       </c>
@@ -13626,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>45637</v>
       </c>
@@ -13675,7 +13658,7 @@
         <v>-0.66137566137566139</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>45636</v>
       </c>
@@ -13724,7 +13707,7 @@
         <v>-1.5625000000000038</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>45635</v>
       </c>
@@ -13773,7 +13756,7 @@
         <v>-1.0309278350515427</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>45632</v>
       </c>
@@ -13822,7 +13805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>45631</v>
       </c>
@@ -13871,7 +13854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>45630</v>
       </c>
@@ -13920,7 +13903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>45629</v>
       </c>
@@ -13969,7 +13952,7 @@
         <v>-7.1518193224592244</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>45628</v>
       </c>
@@ -14018,7 +14001,7 @@
         <v>-2.2140221402213989</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>45625</v>
       </c>
@@ -14067,7 +14050,7 @@
         <v>-1.7199017199017268</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>45624</v>
       </c>
@@ -14116,7 +14099,7 @@
         <v>-1.2135922330097086</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>45623</v>
       </c>
@@ -14165,7 +14148,7 @@
         <v>-1.0856453558504289</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>45622</v>
       </c>
@@ -14214,7 +14197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>45621</v>
       </c>
@@ -14263,7 +14246,7 @@
         <v>-0.36101083032490633</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>45618</v>
       </c>
@@ -14312,7 +14295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>45617</v>
       </c>
@@ -14361,7 +14344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>45616</v>
       </c>
@@ -14410,7 +14393,7 @@
         <v>-3.2941176470588203</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>45615</v>
       </c>
@@ -14459,7 +14442,7 @@
         <v>-0.35211267605633467</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>45614</v>
       </c>
@@ -14508,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>45611</v>
       </c>
@@ -14557,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>45610</v>
       </c>
@@ -14606,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>45609</v>
       </c>
@@ -14655,7 +14638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>45608</v>
       </c>
@@ -14704,7 +14687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>45607</v>
       </c>
@@ -14753,7 +14736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>45604</v>
       </c>
@@ -14802,7 +14785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>45603</v>
       </c>
@@ -14851,7 +14834,7 @@
         <v>-1.8518518518518519</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>45602</v>
       </c>
@@ -14900,7 +14883,7 @@
         <v>-0.85889570552147587</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>45601</v>
       </c>
@@ -14949,7 +14932,7 @@
         <v>-0.37220843672456227</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>45600</v>
       </c>
@@ -14998,7 +14981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>45597</v>
       </c>
@@ -15047,7 +15030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>45596</v>
       </c>
@@ -15096,7 +15079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>45595</v>
       </c>
@@ -15145,7 +15128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>45594</v>
       </c>
@@ -15194,7 +15177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>45593</v>
       </c>
@@ -15243,7 +15226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>45590</v>
       </c>
@@ -15292,7 +15275,7 @@
         <v>-0.39473684210525944</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>45589</v>
       </c>
@@ -15341,7 +15324,7 @@
         <v>-0.39473684210525944</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>45588</v>
       </c>
@@ -15390,7 +15373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>45587</v>
       </c>
@@ -15439,7 +15422,7 @@
         <v>-0.26737967914438882</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>45586</v>
       </c>
@@ -15488,7 +15471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>45583</v>
       </c>
@@ -15537,7 +15520,7 @@
         <v>1.0810810810810771</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>45582</v>
       </c>
@@ -15586,7 +15569,7 @@
         <v>0.27100271002710413</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>45581</v>
       </c>
@@ -15635,7 +15618,7 @@
         <v>-1.0723860589812295</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>45580</v>
       </c>
@@ -15684,7 +15667,7 @@
         <v>1.3586956521739131</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>45579</v>
       </c>
@@ -15733,7 +15716,7 @@
         <v>1.6574585635358958</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>45576</v>
       </c>
@@ -15782,7 +15765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>45575</v>
       </c>
@@ -15831,7 +15814,7 @@
         <v>0.55555555555556346</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>45574</v>
       </c>
@@ -15880,7 +15863,7 @@
         <v>-0.69348127600554788</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>45573</v>
       </c>
@@ -15929,7 +15912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>45572</v>
       </c>
@@ -15978,7 +15961,7 @@
         <v>-0.68870523415977969</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>45569</v>
       </c>
@@ -16027,7 +16010,7 @@
         <v>-0.27472527472527863</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>45568</v>
       </c>
@@ -16076,7 +16059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>45567</v>
       </c>
@@ -16125,7 +16108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>45566</v>
       </c>
@@ -16174,7 +16157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>45565</v>
       </c>
@@ -16223,7 +16206,7 @@
         <v>-2.8493894165536071</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>45562</v>
       </c>
@@ -16272,7 +16255,7 @@
         <v>0.68306010928961747</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>45561</v>
       </c>
@@ -16321,7 +16304,7 @@
         <v>0.96551724137931427</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>45560</v>
       </c>
@@ -16370,7 +16353,7 @@
         <v>1.2569832402234717</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>45559</v>
       </c>
@@ -16419,7 +16402,7 @@
         <v>-2.7173913043478262</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>45558</v>
       </c>
@@ -16468,7 +16451,7 @@
         <v>-1.0752688172043163</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>45555</v>
       </c>
@@ -16517,7 +16500,7 @@
         <v>-0.26809651474529311</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>45554</v>
       </c>
@@ -16566,7 +16549,7 @@
         <v>2.4725274725274686</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>45553</v>
       </c>
@@ -16615,7 +16598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>45552</v>
       </c>
@@ -16664,7 +16647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>45551</v>
       </c>
@@ -16713,7 +16696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>45548</v>
       </c>
@@ -16762,7 +16745,7 @@
         <v>1.392757660167131</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>45547</v>
       </c>
@@ -16811,7 +16794,7 @@
         <v>0.27932960893855147</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>45546</v>
       </c>
@@ -16860,7 +16843,7 @@
         <v>1.1299435028248548</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>45545</v>
       </c>
@@ -16909,7 +16892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>45544</v>
       </c>
@@ -16958,7 +16941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>45541</v>
       </c>
@@ -17007,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>45540</v>
       </c>
@@ -17056,7 +17039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>45539</v>
       </c>
@@ -17105,7 +17088,7 @@
         <v>0.99857346647646639</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>45538</v>
       </c>
@@ -17154,7 +17137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>45537</v>
       </c>
@@ -17203,7 +17186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>45534</v>
       </c>
@@ -17252,7 +17235,7 @@
         <v>-0.84865629420086064</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>45533</v>
       </c>
@@ -17301,7 +17284,7 @@
         <v>1.144492131616591</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>45532</v>
       </c>
@@ -17350,7 +17333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>45531</v>
       </c>
@@ -17399,7 +17382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>45530</v>
       </c>
@@ -17448,7 +17431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>45527</v>
       </c>
@@ -17497,7 +17480,7 @@
         <v>0.28694404591105144</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>45526</v>
       </c>
@@ -17546,7 +17529,7 @@
         <v>0.57720057720058537</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>45525</v>
       </c>
@@ -17595,7 +17578,7 @@
         <v>1.167883211678828</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>45524</v>
       </c>
@@ -17644,7 +17627,7 @@
         <v>-0.72463768115942029</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>45523</v>
       </c>
@@ -17693,7 +17676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>45520</v>
       </c>
@@ -17742,7 +17725,7 @@
         <v>0.58309037900875471</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>45519</v>
       </c>
@@ -17791,7 +17774,7 @@
         <v>0.1459854014598457</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>45518</v>
       </c>
@@ -17840,7 +17823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>45517</v>
       </c>
@@ -17889,7 +17872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>45516</v>
       </c>
@@ -17938,7 +17921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>45513</v>
       </c>
@@ -17987,7 +17970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>45512</v>
       </c>
@@ -18036,7 +18019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>45511</v>
       </c>
@@ -18085,7 +18068,7 @@
         <v>-0.29112081513828653</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>45510</v>
       </c>
@@ -18134,7 +18117,7 @@
         <v>1.0294117647058865</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>45509</v>
       </c>
@@ -18183,7 +18166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>45506</v>
       </c>
@@ -18232,7 +18215,7 @@
         <v>0.59171597633136941</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>45505</v>
       </c>
@@ -18281,7 +18264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>45504</v>
       </c>
@@ -18330,7 +18313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>45503</v>
       </c>
@@ -18379,7 +18362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>45502</v>
       </c>
@@ -18428,7 +18411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>45499</v>
       </c>
@@ -18477,7 +18460,7 @@
         <v>-0.58823529411765541</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>45498</v>
       </c>
@@ -18526,7 +18509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>45497</v>
       </c>
@@ -18575,7 +18558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>45496</v>
       </c>
@@ -18624,7 +18607,7 @@
         <v>-0.43923865300145998</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>45495</v>
       </c>
@@ -18673,7 +18656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>45492</v>
       </c>
@@ -18722,7 +18705,7 @@
         <v>-0.14619883040936918</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>45491</v>
       </c>
@@ -18771,7 +18754,7 @@
         <v>-0.1459854014598457</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>45490</v>
       </c>
@@ -18820,7 +18803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>45489</v>
       </c>
@@ -18869,7 +18852,7 @@
         <v>-1.4388489208633093</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>45488</v>
       </c>
@@ -18918,7 +18901,7 @@
         <v>-1.4388489208633093</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>45485</v>
       </c>
@@ -18967,7 +18950,7 @@
         <v>2.2058823529411766</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>45484</v>
       </c>
@@ -19016,7 +18999,7 @@
         <v>-0.72992700729927007</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>45483</v>
       </c>
@@ -19065,7 +19048,7 @@
         <v>1.4814814814814814</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>45482</v>
       </c>
@@ -19114,7 +19097,7 @@
         <v>0.74626865671641796</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>45481</v>
       </c>
@@ -19163,7 +19146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>45478</v>
       </c>
@@ -19212,7 +19195,7 @@
         <v>0.29940119760479467</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>45477</v>
       </c>
@@ -19261,7 +19244,7 @@
         <v>0.45112781954886788</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>45476</v>
       </c>
@@ -19310,7 +19293,7 @@
         <v>-2.9197080291970803</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>45475</v>
       </c>
@@ -19359,7 +19342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>45474</v>
       </c>
@@ -19408,7 +19391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>45471</v>
       </c>
@@ -19457,7 +19440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>45470</v>
       </c>
@@ -19506,7 +19489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>45469</v>
       </c>
@@ -19555,7 +19538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>45468</v>
       </c>
@@ -19604,7 +19587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>45467</v>
       </c>
@@ -19653,7 +19636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>45464</v>
       </c>
@@ -19702,7 +19685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>45463</v>
       </c>
@@ -19751,7 +19734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>45462</v>
       </c>
@@ -19800,7 +19783,7 @@
         <v>0.43988269794720991</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>45461</v>
       </c>
@@ -19849,7 +19832,7 @@
         <v>1.0370370370370412</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>45460</v>
       </c>
@@ -19898,7 +19881,7 @@
         <v>0.44642857142856718</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>45457</v>
       </c>
@@ -19947,7 +19930,7 @@
         <v>1.8181818181818226</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>45456</v>
       </c>
@@ -19996,7 +19979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>45455</v>
       </c>
@@ -20045,7 +20028,7 @@
         <v>-0.75187969924812026</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>45454</v>
       </c>
@@ -20094,7 +20077,7 @@
         <v>0.75757575757575757</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>45453</v>
       </c>
@@ -20143,7 +20126,7 @@
         <v>-0.3021148036253819</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>45450</v>
       </c>
@@ -20192,7 +20175,7 @@
         <v>0.30303030303030731</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>45449</v>
       </c>
@@ -20241,7 +20224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>45448</v>
       </c>
@@ -20290,7 +20273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>45447</v>
       </c>
@@ -20339,7 +20322,7 @@
         <v>-0.75187969924812026</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>45446</v>
       </c>
@@ -20388,7 +20371,7 @@
         <v>-1.5037593984962405</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>45443</v>
       </c>
@@ -20437,7 +20420,7 @@
         <v>0.75757575757575757</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>45442</v>
       </c>
@@ -20486,7 +20469,7 @@
         <v>1.5384615384615385</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>45441</v>
       </c>
@@ -20535,7 +20518,7 @@
         <v>-0.76335877862595425</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>45440</v>
       </c>
@@ -20584,7 +20567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>45439</v>
       </c>
@@ -20633,7 +20616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>45436</v>
       </c>
@@ -20682,7 +20665,7 @@
         <v>-0.75757575757575757</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>45435</v>
       </c>
@@ -20731,7 +20714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>45434</v>
       </c>
@@ -20780,7 +20763,7 @@
         <v>-1.7857142857142898</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>45433</v>
       </c>
@@ -20829,7 +20812,7 @@
         <v>-1.0309278350515505</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>45432</v>
       </c>
@@ -20878,7 +20861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>45429</v>
       </c>
@@ -20927,7 +20910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>45428</v>
       </c>
@@ -20976,7 +20959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>45427</v>
       </c>
@@ -21025,7 +21008,7 @@
         <v>-0.14705882352940342</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>45426</v>
       </c>
@@ -21074,7 +21057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>45425</v>
       </c>
@@ -21123,7 +21106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>45422</v>
       </c>
@@ -21172,7 +21155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>45421</v>
       </c>
@@ -21221,7 +21204,7 @@
         <v>-0.44117647058823112</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>45420</v>
       </c>
@@ -21270,7 +21253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>45419</v>
       </c>
@@ -21319,7 +21302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>45418</v>
       </c>
@@ -21368,7 +21351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>45415</v>
       </c>
@@ -21417,7 +21400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>45414</v>
       </c>
@@ -21466,7 +21449,7 @@
         <v>0.7407407407407407</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>45413</v>
       </c>
@@ -21515,7 +21498,7 @@
         <v>-1.4598540145985401</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>45412</v>
       </c>
@@ -21564,7 +21547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>45411</v>
       </c>
@@ -21613,7 +21596,7 @@
         <v>0.7407407407407407</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>45408</v>
       </c>
@@ -21662,7 +21645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>45407</v>
       </c>
@@ -21711,7 +21694,7 @@
         <v>0.74626865671641796</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>45406</v>
       </c>
@@ -21760,7 +21743,7 @@
         <v>0.75187969924812026</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>45405</v>
       </c>
@@ -21809,7 +21792,7 @@
         <v>0.75757575757575757</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>45404</v>
       </c>
@@ -21858,7 +21841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>45401</v>
       </c>
@@ -21907,7 +21890,7 @@
         <v>-2.2222222222222223</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>45400</v>
       </c>
@@ -21956,7 +21939,7 @@
         <v>1.5503875968992249</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>45399</v>
       </c>
@@ -22005,7 +21988,7 @@
         <v>0.31104199066874472</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>45398</v>
       </c>
@@ -22054,7 +22037,7 @@
         <v>0.46874999999999556</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>45397</v>
       </c>
@@ -22103,7 +22086,7 @@
         <v>-1.5384615384615385</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>45394</v>
       </c>
@@ -22152,7 +22135,7 @@
         <v>-2.255639097744361</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>45393</v>
       </c>
@@ -22201,7 +22184,7 @@
         <v>-0.74626865671641796</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>45392</v>
       </c>
@@ -22250,7 +22233,7 @@
         <v>0.44977511244377383</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>45391</v>
       </c>
@@ -22299,7 +22282,7 @@
         <v>-1.4771048744460855</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>45390</v>
       </c>
@@ -22348,7 +22331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>45387</v>
       </c>
@@ -22397,7 +22380,7 @@
         <v>-0.44247787610619049</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>45386</v>
       </c>
@@ -22446,7 +22429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>45385</v>
       </c>
@@ -22495,7 +22478,7 @@
         <v>0.44444444444444026</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>45384</v>
       </c>
@@ -22544,7 +22527,7 @@
         <v>-3.5714285714285716</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>45383</v>
       </c>
@@ -22593,7 +22576,7 @@
         <v>3.7037037037037037</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>45380</v>
       </c>
@@ -22642,7 +22625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>45379</v>
       </c>
@@ -22691,7 +22674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>45378</v>
       </c>
@@ -22740,7 +22723,7 @@
         <v>-3.5714285714285716</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>45377</v>
       </c>
@@ -22789,7 +22772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>45376</v>
       </c>
@@ -22838,7 +22821,7 @@
         <v>-2.7777777777777777</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>45373</v>
       </c>
@@ -22887,7 +22870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>45372</v>
       </c>
@@ -22936,7 +22919,7 @@
         <v>-0.82644628099172779</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>45371</v>
       </c>
@@ -22985,7 +22968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>45370</v>
       </c>
@@ -23034,7 +23017,7 @@
         <v>1.5384615384615306</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>45369</v>
       </c>
@@ -23083,7 +23066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>45366</v>
       </c>
@@ -23132,7 +23115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>45365</v>
       </c>
@@ -23181,7 +23164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>45364</v>
       </c>
@@ -23230,7 +23213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>45363</v>
       </c>
@@ -23279,7 +23262,7 @@
         <v>-0.69444444444444442</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>45362</v>
       </c>
@@ -23328,7 +23311,7 @@
         <v>0.69930069930069927</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>45359</v>
       </c>
@@ -23377,7 +23360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>45358</v>
       </c>
@@ -23426,7 +23409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>45357</v>
       </c>
@@ -23475,7 +23458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>45356</v>
       </c>
@@ -23524,7 +23507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>45355</v>
       </c>
@@ -23573,7 +23556,7 @@
         <v>-1.3986013986013985</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>45352</v>
       </c>
@@ -23622,7 +23605,7 @@
         <v>-0.69444444444444442</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>45351</v>
       </c>
@@ -23671,7 +23654,7 @@
         <v>-0.27700831024931138</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>45350</v>
       </c>
@@ -23720,7 +23703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>45349</v>
       </c>
@@ -23769,7 +23752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>45348</v>
       </c>
@@ -23818,7 +23801,7 @@
         <v>0.97902097902098295</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>45345</v>
       </c>
@@ -23867,7 +23850,7 @@
         <v>2.1428571428571428</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>45344</v>
       </c>
@@ -23916,7 +23899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>45343</v>
       </c>
@@ -23965,7 +23948,7 @@
         <v>-1.408450704225352</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>45342</v>
       </c>
@@ -24014,7 +23997,7 @@
         <v>1.4285714285714286</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>45341</v>
       </c>
@@ -24063,7 +24046,7 @@
         <v>-3.4482758620689653</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>45338</v>
       </c>
@@ -24112,7 +24095,7 @@
         <v>0.13812154696131809</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>45337</v>
       </c>
@@ -24161,7 +24144,7 @@
         <v>3.4285714285714368</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>45336</v>
       </c>
@@ -24210,7 +24193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>45335</v>
       </c>
@@ -24259,7 +24242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>45334</v>
       </c>
@@ -24308,7 +24291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>45331</v>
       </c>
@@ -24357,7 +24340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>45330</v>
       </c>
@@ -24406,7 +24389,7 @@
         <v>-1.408450704225352</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>45329</v>
       </c>
@@ -24455,7 +24438,7 @@
         <v>-0.69930069930069927</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>45328</v>
       </c>
@@ -24504,7 +24487,7 @@
         <v>2.1428571428571428</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>45324</v>
       </c>
@@ -24553,7 +24536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>45323</v>
       </c>
@@ -24602,7 +24585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>45322</v>
       </c>
@@ -24651,7 +24634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>45321</v>
       </c>
@@ -24700,7 +24683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>45320</v>
       </c>
@@ -24749,7 +24732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>45317</v>
       </c>
@@ -24798,7 +24781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>45316</v>
       </c>
@@ -24847,7 +24830,7 @@
         <v>-8.0459770114942462</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>45315</v>
       </c>
@@ -24896,7 +24879,7 @@
         <v>1.6058394160583858</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>45313</v>
       </c>
@@ -24945,7 +24928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>45310</v>
       </c>
@@ -24994,7 +24977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>45309</v>
       </c>
@@ -25043,7 +25026,7 @@
         <v>1.4814814814814814</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>45308</v>
       </c>
@@ -25092,7 +25075,7 @@
         <v>-0.73529411764705888</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>45307</v>
       </c>
@@ -25141,7 +25124,7 @@
         <v>-5.882352941176471</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>45306</v>
       </c>
@@ -25190,7 +25173,7 @@
         <v>-1.4492753623188406</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>45303</v>
       </c>
@@ -25239,7 +25222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>45302</v>
       </c>
@@ -25288,7 +25271,7 @@
         <v>-1.4285714285714286</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>45301</v>
       </c>
@@ -25337,7 +25320,7 @@
         <v>-0.70921985815602839</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>45300</v>
       </c>
@@ -25386,7 +25369,7 @@
         <v>0.28449502133713067</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>45299</v>
       </c>
@@ -25435,7 +25418,7 @@
         <v>1.8840579710144887</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>45296</v>
       </c>
@@ -25484,7 +25467,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>45295</v>
       </c>
@@ -25533,7 +25516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>45294</v>
       </c>
@@ -25582,7 +25565,7 @@
         <v>0.74626865671641796</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>45293</v>
       </c>
@@ -25631,7 +25614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>45292</v>
       </c>
@@ -25680,7 +25663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>45289</v>
       </c>
@@ -25729,7 +25712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>45288</v>
       </c>
@@ -25778,7 +25761,7 @@
         <v>0.75187969924812026</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>45287</v>
       </c>
@@ -25827,7 +25810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>45285</v>
       </c>
@@ -25876,7 +25859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>45282</v>
       </c>
@@ -25925,7 +25908,7 @@
         <v>1.5267175572519085</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>45281</v>
       </c>
@@ -25974,7 +25957,7 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>45280</v>
       </c>
@@ -26023,7 +26006,7 @@
         <v>-0.77519379844961245</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>45279</v>
       </c>
@@ -26072,7 +26055,7 @@
         <v>-0.30911901081916976</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>45278</v>
       </c>
@@ -26121,7 +26104,7 @@
         <v>1.0937500000000044</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>45275</v>
       </c>
@@ -26170,7 +26153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>45274</v>
       </c>
@@ -26219,7 +26202,7 @@
         <v>-0.31152647975078324</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>45273</v>
       </c>
@@ -26268,7 +26251,7 @@
         <v>-0.46511627906976305</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>45272</v>
       </c>
@@ -26317,7 +26300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>45271</v>
       </c>
@@ -26366,7 +26349,7 @@
         <v>1.0971786833855843</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>45268</v>
       </c>
@@ -26415,7 +26398,7 @@
         <v>0.15698587127157662</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>45267</v>
       </c>
@@ -26464,7 +26447,7 @@
         <v>0.31496062992126433</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>45266</v>
       </c>
@@ -26513,7 +26496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>45265</v>
       </c>
@@ -26562,7 +26545,7 @@
         <v>2.4193548387096775</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>45264</v>
       </c>
@@ -26611,7 +26594,7 @@
         <v>-1.5873015873015872</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>45261</v>
       </c>
@@ -26660,7 +26643,7 @@
         <v>-1.5625</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>45260</v>
       </c>
@@ -26709,7 +26692,7 @@
         <v>1.5873015873015872</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>45259</v>
       </c>
@@ -26758,7 +26741,7 @@
         <v>1.6129032258064515</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>45258</v>
       </c>
@@ -26807,7 +26790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>45257</v>
       </c>
@@ -26856,7 +26839,7 @@
         <v>0.32362459546926026</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>45254</v>
       </c>
@@ -26905,7 +26888,7 @@
         <v>-1.1200000000000045</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>45253</v>
       </c>
@@ -26954,7 +26937,7 @@
         <v>1.6260162601626016</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>45252</v>
       </c>
@@ -27003,7 +26986,7 @@
         <v>-2.0700636942675117</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>45251</v>
       </c>
@@ -27052,7 +27035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>45250</v>
       </c>
@@ -27101,7 +27084,7 @@
         <v>1.2903225806451568</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>45247</v>
       </c>
@@ -27150,7 +27133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>45246</v>
       </c>
@@ -27199,7 +27182,7 @@
         <v>1.9736842105263206</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>45245</v>
       </c>
@@ -27248,7 +27231,7 @@
         <v>-1.9354838709677464</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>45244</v>
       </c>
@@ -27297,7 +27280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>45243</v>
       </c>
@@ -27346,7 +27329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>45240</v>
       </c>
@@ -27395,7 +27378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>45239</v>
       </c>
@@ -27444,7 +27427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>45238</v>
       </c>
@@ -27493,7 +27476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>45237</v>
       </c>
@@ -27542,7 +27525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>45236</v>
       </c>
@@ -27591,7 +27574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>45233</v>
       </c>
@@ -27640,7 +27623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>45232</v>
       </c>
@@ -27689,7 +27672,7 @@
         <v>2.4793388429752068</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>45231</v>
       </c>
@@ -27738,7 +27721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>45230</v>
       </c>
@@ -27787,7 +27770,7 @@
         <v>-2.4193548387096775</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>45229</v>
       </c>
@@ -27836,7 +27819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>45226</v>
       </c>
@@ -27885,7 +27868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>45225</v>
       </c>
@@ -27934,7 +27917,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>45224</v>
       </c>
@@ -27983,7 +27966,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>45223</v>
       </c>
@@ -28032,7 +28015,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>45222</v>
       </c>
@@ -28081,7 +28064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>45219</v>
       </c>
@@ -28130,7 +28113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>45218</v>
       </c>
@@ -28179,7 +28162,7 @@
         <v>1.6260162601626016</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>45217</v>
       </c>
@@ -28228,7 +28211,7 @@
         <v>-3.1496062992125986</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>45216</v>
       </c>
@@ -28277,7 +28260,7 @@
         <v>2.4193548387096775</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>45215</v>
       </c>
@@ -28326,7 +28309,7 @@
         <v>-2.3622047244094486</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>45212</v>
       </c>
@@ -28375,7 +28358,7 @@
         <v>-1.5503875968992249</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>45211</v>
       </c>
@@ -28424,7 +28407,7 @@
         <v>4.8780487804878048</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>45210</v>
       </c>
@@ -28473,7 +28456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>45209</v>
       </c>
@@ -28522,7 +28505,7 @@
         <v>-0.80645161290322576</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>45208</v>
       </c>
@@ -28571,7 +28554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>45205</v>
       </c>
@@ -28620,7 +28603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>45204</v>
       </c>
@@ -28669,7 +28652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>45203</v>
       </c>
@@ -28718,7 +28701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>45201</v>
       </c>
@@ -28767,7 +28750,7 @@
         <v>-0.82644628099173556</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>45198</v>
       </c>
@@ -28816,7 +28799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>45197</v>
       </c>
@@ -28865,7 +28848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>45196</v>
       </c>
@@ -28914,7 +28897,7 @@
         <v>-1.6260162601626016</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>45195</v>
       </c>
@@ -28963,7 +28946,7 @@
         <v>-0.32414910858995599</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>45194</v>
       </c>
@@ -29012,7 +28995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>45191</v>
       </c>
@@ -29061,7 +29044,7 @@
         <v>0.32520325203252493</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>45190</v>
       </c>
@@ -29110,7 +29093,7 @@
         <v>-0.80645161290322576</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>45189</v>
       </c>
@@ -29159,7 +29142,7 @@
         <v>1.639344262295082</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>45188</v>
       </c>
@@ -29208,7 +29191,7 @@
         <v>-1.6129032258064515</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>45184</v>
       </c>
@@ -29257,7 +29240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>45182</v>
       </c>
@@ -29306,7 +29289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>45181</v>
       </c>
@@ -29355,7 +29338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>45180</v>
       </c>
@@ -29404,7 +29387,7 @@
         <v>6.8965517241379306</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>45177</v>
       </c>
@@ -29453,7 +29436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>45176</v>
       </c>
@@ -29502,7 +29485,7 @@
         <v>0.86956521739130432</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>45175</v>
       </c>
@@ -29551,7 +29534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>45174</v>
       </c>
@@ -29600,7 +29583,7 @@
         <v>-4.9586776859504136</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>45173</v>
       </c>
@@ -29649,7 +29632,7 @@
         <v>-4.838709677419355</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>45170</v>
       </c>
@@ -29698,7 +29681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>45169</v>
       </c>
@@ -29747,7 +29730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>45168</v>
       </c>
@@ -29796,7 +29779,7 @@
         <v>-7.258064516129032</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>45167</v>
       </c>
@@ -29845,7 +29828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>45166</v>
       </c>
@@ -29894,7 +29877,7 @@
         <v>-1.5873015873015872</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>45163</v>
       </c>
@@ -29943,7 +29926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>45162</v>
       </c>
@@ -29992,7 +29975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>45161</v>
       </c>
@@ -30041,7 +30024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>45160</v>
       </c>
@@ -30090,7 +30073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>45159</v>
       </c>
@@ -30139,7 +30122,7 @@
         <v>-1.5625</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>45156</v>
       </c>
@@ -30188,7 +30171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>45155</v>
       </c>
@@ -30237,7 +30220,7 @@
         <v>-0.77519379844961245</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>45154</v>
       </c>
@@ -30286,7 +30269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>45152</v>
       </c>
@@ -30335,7 +30318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>45149</v>
       </c>
@@ -30384,7 +30367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>45148</v>
       </c>
@@ -30433,7 +30416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>45147</v>
       </c>
@@ -30482,7 +30465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>45146</v>
       </c>
@@ -30531,7 +30514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>45145</v>
       </c>
@@ -30580,7 +30563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>45142</v>
       </c>
@@ -30629,7 +30612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>45141</v>
       </c>
@@ -30678,7 +30661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>45140</v>
       </c>
@@ -30727,7 +30710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>45139</v>
       </c>
@@ -30776,7 +30759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>45138</v>
       </c>
@@ -30825,7 +30808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>45135</v>
       </c>
@@ -30874,7 +30857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>45134</v>
       </c>
@@ -30923,7 +30906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>45133</v>
       </c>
@@ -30972,7 +30955,7 @@
         <v>0.90090090090090091</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>45132</v>
       </c>
@@ -31021,7 +31004,7 @@
         <v>-2.6315789473684212</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>45131</v>
       </c>
@@ -31070,7 +31053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>45128</v>
       </c>
@@ -31119,7 +31102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>45127</v>
       </c>
@@ -31168,7 +31151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>45126</v>
       </c>
@@ -31217,7 +31200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>45125</v>
       </c>
@@ -31266,7 +31249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>45124</v>
       </c>
@@ -31315,7 +31298,7 @@
         <v>-4.3478260869565215</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>45121</v>
       </c>
@@ -31364,7 +31347,7 @@
         <v>-0.86206896551724133</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>45120</v>
       </c>
@@ -31413,7 +31396,7 @@
         <v>-1.7543859649122806</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>45119</v>
       </c>
@@ -31462,7 +31445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>45118</v>
       </c>
@@ -31511,7 +31494,7 @@
         <v>-9.433962264150944</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>45117</v>
       </c>
@@ -31560,7 +31543,7 @@
         <v>-15.044247787610619</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>45114</v>
       </c>
@@ -31609,7 +31592,7 @@
         <v>-4.4247787610619467</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>45113</v>
       </c>
@@ -31658,7 +31641,7 @@
         <v>-3.4188034188034186</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>45112</v>
       </c>
@@ -31707,7 +31690,7 @@
         <v>-7.1428571428571432</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>45111</v>
       </c>
@@ -31756,7 +31739,7 @@
         <v>-1.0989010989011032</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>45110</v>
       </c>
@@ -31805,7 +31788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>45107</v>
       </c>
@@ -31854,7 +31837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>45106</v>
       </c>
@@ -31903,7 +31886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>45105</v>
       </c>
@@ -31952,7 +31935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>45104</v>
       </c>
@@ -32001,7 +31984,7 @@
         <v>-5.9701492537313436</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>45103</v>
       </c>
@@ -32050,7 +32033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>45099</v>
       </c>
@@ -32099,7 +32082,7 @@
         <v>-1.4705882352941178</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>45098</v>
       </c>
@@ -32148,7 +32131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>45097</v>
       </c>
@@ -32197,7 +32180,7 @@
         <v>-1.4492753623188406</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>45093</v>
       </c>
@@ -32246,7 +32229,7 @@
         <v>-2.816901408450704</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>45090</v>
       </c>
@@ -32295,7 +32278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>45085</v>
       </c>
@@ -32344,7 +32327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>45084</v>
       </c>
@@ -32393,7 +32376,7 @@
         <v>-0.69930069930069927</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>45083</v>
       </c>
@@ -32401,48 +32384,48 @@
         <v>35.75</v>
       </c>
       <c r="C648">
-        <f t="shared" ref="C648:C711" si="80">IF(AND(ISNUMBER(B648), ISNUMBER(B649)), (B648 - B649), "")</f>
+        <f t="shared" ref="C648:C706" si="80">IF(AND(ISNUMBER(B648), ISNUMBER(B649)), (B648 - B649), "")</f>
         <v>0.75</v>
       </c>
       <c r="D648">
-        <f t="shared" ref="D648:D711" si="81">IF(AND(ISNUMBER(C648), ISNUMBER(B649)), (100*(C648)/ABS(B649)), "")</f>
+        <f t="shared" ref="D648:D706" si="81">IF(AND(ISNUMBER(C648), ISNUMBER(B649)), (100*(C648)/ABS(B649)), "")</f>
         <v>2.1428571428571428</v>
       </c>
       <c r="E648">
         <v>35</v>
       </c>
       <c r="F648">
-        <f t="shared" ref="F648:F711" si="82">IF(AND(ISNUMBER(E648), ISNUMBER(B649)), (E648 - B649), "")</f>
+        <f t="shared" ref="F648:F706" si="82">IF(AND(ISNUMBER(E648), ISNUMBER(B649)), (E648 - B649), "")</f>
         <v>0</v>
       </c>
       <c r="G648">
-        <f t="shared" ref="G648:G711" si="83">IF(AND(ISNUMBER(F648), ISNUMBER(B649)), (100*(F648)/ABS(B649)), "")</f>
+        <f t="shared" ref="G648:G706" si="83">IF(AND(ISNUMBER(F648), ISNUMBER(B649)), (100*(F648)/ABS(B649)), "")</f>
         <v>0</v>
       </c>
       <c r="H648">
         <v>35.75</v>
       </c>
       <c r="I648">
-        <f t="shared" ref="I648:I711" si="84">IF(AND(ISNUMBER(H648), ISNUMBER(B649)), (H648 - B649), "")</f>
+        <f t="shared" ref="I648:I706" si="84">IF(AND(ISNUMBER(H648), ISNUMBER(B649)), (H648 - B649), "")</f>
         <v>0.75</v>
       </c>
       <c r="J648">
-        <f t="shared" ref="J648:J711" si="85">IF(AND(ISNUMBER(I648), ISNUMBER(B649)), (100*(I648)/ABS(B649)), "")</f>
+        <f t="shared" ref="J648:J706" si="85">IF(AND(ISNUMBER(I648), ISNUMBER(B649)), (100*(I648)/ABS(B649)), "")</f>
         <v>2.1428571428571428</v>
       </c>
       <c r="K648">
         <v>35</v>
       </c>
       <c r="L648">
-        <f t="shared" ref="L648:L711" si="86">IF(AND(ISNUMBER(K648), ISNUMBER(B649)), (K648 - B649),"")</f>
+        <f t="shared" ref="L648:L706" si="86">IF(AND(ISNUMBER(K648), ISNUMBER(B649)), (K648 - B649),"")</f>
         <v>0</v>
       </c>
       <c r="M648">
-        <f t="shared" ref="M648:M711" si="87">IF(AND(ISNUMBER(L648), ISNUMBER(B649)), (100*(L648)/ABS(B649)), "")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" ref="M648:M706" si="87">IF(AND(ISNUMBER(L648), ISNUMBER(B649)), (100*(L648)/ABS(B649)), "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>45082</v>
       </c>
@@ -32491,7 +32474,7 @@
         <v>0.71942446043165464</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>45079</v>
       </c>
@@ -32540,7 +32523,7 @@
         <v>0.72463768115942029</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>45078</v>
       </c>
@@ -32589,7 +32572,7 @@
         <v>-0.71942446043165464</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>45077</v>
       </c>
@@ -32638,7 +32621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>45076</v>
       </c>
@@ -32687,7 +32670,7 @@
         <v>-0.7142857142857143</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>45075</v>
       </c>
@@ -32736,7 +32719,7 @@
         <v>-0.70921985815602839</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>45072</v>
       </c>
@@ -32785,7 +32768,7 @@
         <v>-3.4246575342465753</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>45063</v>
       </c>
@@ -32834,7 +32817,7 @@
         <v>-1.3513513513513513</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>45062</v>
       </c>
@@ -32883,7 +32866,7 @@
         <v>-1.9867549668874172</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>45061</v>
       </c>
@@ -32932,7 +32915,7 @@
         <v>-2.6143790849673203</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>45058</v>
       </c>
@@ -32981,7 +32964,7 @@
         <v>-1.9607843137254901</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>45057</v>
       </c>
@@ -33030,7 +33013,7 @@
         <v>-0.91503267973856584</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>45056</v>
       </c>
@@ -33079,7 +33062,7 @@
         <v>-1.3071895424836601</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>45055</v>
       </c>
@@ -33128,7 +33111,7 @@
         <v>-1.9607843137254901</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>45054</v>
       </c>
@@ -33177,7 +33160,7 @@
         <v>-0.65359477124183007</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>45051</v>
       </c>
@@ -33226,7 +33209,7 @@
         <v>-1.6993464052287544</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>45050</v>
       </c>
@@ -33275,7 +33258,7 @@
         <v>-1.9607843137254901</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>45049</v>
       </c>
@@ -33324,7 +33307,7 @@
         <v>-1.9736842105263157</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>45048</v>
       </c>
@@ -33373,7 +33356,7 @@
         <v>0.65789473684210531</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>45047</v>
       </c>
@@ -33422,7 +33405,7 @@
         <v>0.26315789473684587</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>45044</v>
       </c>
@@ -33471,7 +33454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>45043</v>
       </c>
@@ -33520,7 +33503,7 @@
         <v>0.26315789473684587</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>45042</v>
       </c>
@@ -33569,7 +33552,7 @@
         <v>0.65789473684210531</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>45041</v>
       </c>
@@ -33618,7 +33601,7 @@
         <v>2.6315789473684212</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>45040</v>
       </c>
@@ -33667,7 +33650,7 @@
         <v>1.9867549668874172</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>45037</v>
       </c>
@@ -33716,7 +33699,7 @@
         <v>-0.64516129032258063</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>45036</v>
       </c>
@@ -33765,7 +33748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>45035</v>
       </c>
@@ -33814,7 +33797,7 @@
         <v>-5.806451612903226</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>45034</v>
       </c>
@@ -33863,7 +33846,7 @@
         <v>-5.806451612903226</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>45033</v>
       </c>
@@ -33912,7 +33895,7 @@
         <v>-5.806451612903226</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>45030</v>
       </c>
@@ -33961,7 +33944,7 @@
         <v>-4.1994750656168014</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>45029</v>
       </c>
@@ -34010,7 +33993,7 @@
         <v>-2.887139107611552</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>45028</v>
       </c>
@@ -34059,7 +34042,7 @@
         <v>-3.9215686274509802</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>45027</v>
       </c>
@@ -34108,7 +34091,7 @@
         <v>-6.4102564102564106</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>45026</v>
       </c>
@@ -34157,7 +34140,7 @@
         <v>-6.4102564102564106</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>45023</v>
       </c>
@@ -34206,7 +34189,7 @@
         <v>-4.5751633986928102</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>45022</v>
       </c>
@@ -34255,7 +34238,7 @@
         <v>-12.738853503184714</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>45021</v>
       </c>
@@ -34304,7 +34287,7 @@
         <v>-11.612903225806452</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>45020</v>
       </c>
@@ -34353,7 +34336,7 @@
         <v>-7.741935483870968</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>45019</v>
       </c>
@@ -34402,7 +34385,7 @@
         <v>-9.67741935483871</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>45016</v>
       </c>
@@ -34451,7 +34434,7 @@
         <v>-11.612903225806452</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>45015</v>
       </c>
@@ -34500,7 +34483,7 @@
         <v>-11.612903225806452</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>45014</v>
       </c>
@@ -34549,7 +34532,7 @@
         <v>-11.038961038961039</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>45013</v>
       </c>
@@ -34598,7 +34581,7 @@
         <v>-8.6666666666666661</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>45012</v>
       </c>
@@ -34647,7 +34630,7 @@
         <v>-5.2287581699346406</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>45009</v>
       </c>
@@ -34696,7 +34679,7 @@
         <v>-4.5751633986928102</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>45008</v>
       </c>
@@ -34745,7 +34728,7 @@
         <v>1.3698630136986301</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>45006</v>
       </c>
@@ -34794,7 +34777,7 @@
         <v>-3.2679738562091503</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>45005</v>
       </c>
@@ -34843,7 +34826,7 @@
         <v>-3.2679738562091503</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>45002</v>
       </c>
@@ -34892,7 +34875,7 @@
         <v>0.65359477124183007</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>45001</v>
       </c>
@@ -34941,7 +34924,7 @@
         <v>0.65359477124183007</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>45000</v>
       </c>
@@ -34990,7 +34973,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>44999</v>
       </c>
@@ -35039,7 +35022,7 @@
         <v>-11.633986928104582</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>44998</v>
       </c>
@@ -35088,7 +35071,7 @@
         <v>-11.633986928104582</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>44995</v>
       </c>
@@ -35137,7 +35120,7 @@
         <v>-11.633986928104582</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>44994</v>
       </c>
@@ -35186,7 +35169,7 @@
         <v>-11.633986928104582</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>44993</v>
       </c>
@@ -35235,7 +35218,7 @@
         <v>-11.633986928104582</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>44992</v>
       </c>
@@ -35284,7 +35267,7 @@
         <v>-23.178807947019866</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>44991</v>
       </c>
@@ -35301,7 +35284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>44988</v>
       </c>
@@ -35318,7 +35301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>44987</v>
       </c>
@@ -35335,7 +35318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>44986</v>
       </c>
@@ -35352,7 +35335,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>44985</v>
       </c>
@@ -35369,7 +35352,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>44984</v>
       </c>
@@ -35386,7 +35369,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>44981</v>
       </c>
@@ -35403,7 +35386,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>44980</v>
       </c>
@@ -35420,7 +35403,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>44979</v>
       </c>
@@ -35437,7 +35420,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>44978</v>
       </c>
@@ -35454,7 +35437,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>44977</v>
       </c>
@@ -35471,7 +35454,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>44974</v>
       </c>
@@ -35488,7 +35471,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>44973</v>
       </c>
@@ -35505,7 +35488,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>44972</v>
       </c>
@@ -35522,7 +35505,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>44971</v>
       </c>
@@ -35539,7 +35522,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>44970</v>
       </c>
@@ -35556,7 +35539,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>44967</v>
       </c>
@@ -35573,7 +35556,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>44966</v>
       </c>
@@ -35590,7 +35573,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>44965</v>
       </c>
@@ -35607,7 +35590,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>44964</v>
       </c>
@@ -35624,7 +35607,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>44963</v>
       </c>
@@ -35641,7 +35624,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>44960</v>
       </c>
@@ -35658,7 +35641,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>44959</v>
       </c>
@@ -35675,7 +35658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>44958</v>
       </c>
@@ -35692,7 +35675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>44957</v>
       </c>
@@ -35709,7 +35692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>44956</v>
       </c>
@@ -35726,7 +35709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>44953</v>
       </c>
@@ -35743,7 +35726,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>44951</v>
       </c>
@@ -35760,7 +35743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>44950</v>
       </c>
@@ -35777,7 +35760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>44949</v>
       </c>
@@ -35794,7 +35777,7 @@
         <v>27.37</v>
       </c>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>44946</v>
       </c>
@@ -35811,7 +35794,7 @@
         <v>27.37</v>
       </c>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>44945</v>
       </c>
@@ -35828,7 +35811,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>44944</v>
       </c>
@@ -35845,7 +35828,7 @@
         <v>27.87</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>44943</v>
       </c>
@@ -35862,7 +35845,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>44942</v>
       </c>
@@ -35879,7 +35862,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>44939</v>
       </c>
@@ -35896,7 +35879,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>44938</v>
       </c>
@@ -35913,7 +35896,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>44937</v>
       </c>
@@ -35930,7 +35913,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>44936</v>
       </c>
@@ -35947,7 +35930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>44935</v>
       </c>
@@ -35964,7 +35947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>44932</v>
       </c>
@@ -35981,7 +35964,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>44931</v>
       </c>
@@ -35998,7 +35981,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>44930</v>
       </c>
@@ -36015,7 +35998,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>44929</v>
       </c>
@@ -36032,7 +36015,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>44928</v>
       </c>
@@ -36049,12 +36032,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
-        <v>44923</v>
+        <v>44918</v>
       </c>
       <c r="B752">
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="E752">
         <v>30</v>
@@ -36063,12 +36046,12 @@
         <v>30</v>
       </c>
       <c r="K752">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="753" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
-        <v>44918</v>
+        <v>44917</v>
       </c>
       <c r="B753">
         <v>33.799999999999997</v>
@@ -36083,9 +36066,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
-        <v>44917</v>
+        <v>44916</v>
       </c>
       <c r="B754">
         <v>33.799999999999997</v>
@@ -36100,26 +36083,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
-        <v>44916</v>
+        <v>44915</v>
       </c>
       <c r="B755">
         <v>33.799999999999997</v>
       </c>
       <c r="E755">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H755">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K755">
         <v>30</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
-        <v>44915</v>
+        <v>44914</v>
       </c>
       <c r="B756">
         <v>33.799999999999997</v>
@@ -36131,100 +36114,100 @@
         <v>31</v>
       </c>
       <c r="K756">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="757" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
-        <v>44914</v>
+        <v>44831</v>
       </c>
       <c r="B757">
-        <v>33.799999999999997</v>
+        <v>29</v>
       </c>
       <c r="E757">
+        <v>31.5</v>
+      </c>
+      <c r="H757">
+        <v>31.5</v>
+      </c>
+      <c r="K757">
         <v>31</v>
       </c>
-      <c r="H757">
-        <v>31</v>
-      </c>
-      <c r="K757">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="758" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
-        <v>44831</v>
+        <v>44830</v>
       </c>
       <c r="B758">
         <v>29</v>
       </c>
       <c r="E758">
+        <v>33.75</v>
+      </c>
+      <c r="H758">
+        <v>33.75</v>
+      </c>
+      <c r="K758">
         <v>31.5</v>
       </c>
-      <c r="H758">
-        <v>31.5</v>
-      </c>
-      <c r="K758">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="759" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
-        <v>44830</v>
+        <v>44827</v>
       </c>
       <c r="B759">
-        <v>29</v>
+        <v>31.25</v>
       </c>
       <c r="E759">
+        <v>34.5</v>
+      </c>
+      <c r="H759">
+        <v>34.5</v>
+      </c>
+      <c r="K759">
         <v>33.75</v>
       </c>
-      <c r="H759">
-        <v>33.75</v>
-      </c>
-      <c r="K759">
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="760" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
-        <v>44827</v>
+        <v>44825</v>
       </c>
       <c r="B760">
-        <v>31.25</v>
+        <v>30.15</v>
       </c>
       <c r="E760">
+        <v>35</v>
+      </c>
+      <c r="H760">
+        <v>35</v>
+      </c>
+      <c r="K760">
         <v>34.5</v>
       </c>
-      <c r="H760">
-        <v>34.5</v>
-      </c>
-      <c r="K760">
-        <v>33.75</v>
-      </c>
-    </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="761" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="B761">
-        <v>0</v>
+        <v>30.25</v>
       </c>
       <c r="E761">
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="H761">
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="K761">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="762" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
-        <v>44825</v>
+        <v>44823</v>
       </c>
       <c r="B762">
-        <v>30.15</v>
+        <v>30.3</v>
       </c>
       <c r="E762">
         <v>35</v>
@@ -36233,15 +36216,15 @@
         <v>35</v>
       </c>
       <c r="K762">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="763" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
-        <v>44824</v>
+        <v>44819</v>
       </c>
       <c r="B763">
-        <v>30.25</v>
+        <v>30.3</v>
       </c>
       <c r="E763">
         <v>35</v>
@@ -36253,94 +36236,94 @@
         <v>35</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
-        <v>44823</v>
+        <v>44818</v>
       </c>
       <c r="B764">
-        <v>30.3</v>
+        <v>29.9</v>
       </c>
       <c r="E764">
-        <v>35</v>
+        <v>35.25</v>
       </c>
       <c r="H764">
-        <v>35</v>
+        <v>35.25</v>
       </c>
       <c r="K764">
         <v>35</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
-        <v>44819</v>
+        <v>44817</v>
       </c>
       <c r="B765">
-        <v>30.3</v>
+        <v>29.5</v>
       </c>
       <c r="E765">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="H765">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="K765">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="766" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
-        <v>44818</v>
+        <v>44816</v>
       </c>
       <c r="B766">
-        <v>29.9</v>
+        <v>29.25</v>
       </c>
       <c r="E766">
+        <v>35.4</v>
+      </c>
+      <c r="H766">
+        <v>35.4</v>
+      </c>
+      <c r="K766">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="767" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A767" s="1">
+        <v>44813</v>
+      </c>
+      <c r="B767">
+        <v>29.25</v>
+      </c>
+      <c r="E767">
         <v>35.25</v>
       </c>
-      <c r="H766">
+      <c r="H767">
         <v>35.25</v>
-      </c>
-      <c r="K766">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A767" s="1">
-        <v>44817</v>
-      </c>
-      <c r="B767">
-        <v>29.5</v>
-      </c>
-      <c r="E767">
-        <v>35.4</v>
-      </c>
-      <c r="H767">
-        <v>35.4</v>
       </c>
       <c r="K767">
         <v>35.25</v>
       </c>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
-        <v>44816</v>
+        <v>44812</v>
       </c>
       <c r="B768">
         <v>29.25</v>
       </c>
       <c r="E768">
-        <v>35.4</v>
+        <v>35.25</v>
       </c>
       <c r="H768">
-        <v>35.4</v>
+        <v>35.25</v>
       </c>
       <c r="K768">
-        <v>35.4</v>
-      </c>
-    </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="769" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
-        <v>44813</v>
+        <v>44811</v>
       </c>
       <c r="B769">
         <v>29.25</v>
@@ -36355,12 +36338,12 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
-        <v>44812</v>
+        <v>44810</v>
       </c>
       <c r="B770">
-        <v>29.25</v>
+        <v>28.75</v>
       </c>
       <c r="E770">
         <v>35.25</v>
@@ -36372,12 +36355,12 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
-        <v>44811</v>
+        <v>44809</v>
       </c>
       <c r="B771">
-        <v>29.25</v>
+        <v>28.62</v>
       </c>
       <c r="E771">
         <v>35.25</v>
@@ -36389,9 +36372,9 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
-        <v>44810</v>
+        <v>44806</v>
       </c>
       <c r="B772">
         <v>28.75</v>
@@ -36406,12 +36389,12 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
-        <v>44809</v>
+        <v>44805</v>
       </c>
       <c r="B773">
-        <v>28.62</v>
+        <v>28.5</v>
       </c>
       <c r="E773">
         <v>35.25</v>
@@ -36423,9 +36406,9 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
-        <v>44806</v>
+        <v>44804</v>
       </c>
       <c r="B774">
         <v>28.75</v>
@@ -36440,26 +36423,26 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
-        <v>44805</v>
+        <v>44803</v>
       </c>
       <c r="B775">
-        <v>28.5</v>
+        <v>28.75</v>
       </c>
       <c r="E775">
-        <v>35.25</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="H775">
         <v>35.25</v>
       </c>
       <c r="K775">
-        <v>35.25</v>
-      </c>
-    </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34.869999999999997</v>
+      </c>
+    </row>
+    <row r="776" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
-        <v>44804</v>
+        <v>44802</v>
       </c>
       <c r="B776">
         <v>28.75</v>
@@ -36471,507 +36454,473 @@
         <v>35.25</v>
       </c>
       <c r="K776">
+        <v>34.869999999999997</v>
+      </c>
+    </row>
+    <row r="777" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A777" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B777">
+        <v>28.5</v>
+      </c>
+      <c r="E777">
         <v>35.25</v>
-      </c>
-    </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A777" s="1">
-        <v>44803</v>
-      </c>
-      <c r="B777">
-        <v>28.75</v>
-      </c>
-      <c r="E777">
-        <v>34.869999999999997</v>
       </c>
       <c r="H777">
         <v>35.25</v>
       </c>
       <c r="K777">
-        <v>34.869999999999997</v>
-      </c>
-    </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="778" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
-        <v>44802</v>
+        <v>44798</v>
       </c>
       <c r="B778">
-        <v>28.75</v>
+        <v>28.5</v>
       </c>
       <c r="E778">
+        <v>35.5</v>
+      </c>
+      <c r="H778">
+        <v>35.5</v>
+      </c>
+      <c r="K778">
         <v>35.25</v>
       </c>
-      <c r="H778">
-        <v>35.25</v>
-      </c>
-      <c r="K778">
-        <v>34.869999999999997</v>
-      </c>
-    </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="779" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
-        <v>44799</v>
+        <v>44797</v>
       </c>
       <c r="B779">
         <v>28.5</v>
       </c>
       <c r="E779">
-        <v>35.25</v>
+        <v>35.5</v>
       </c>
       <c r="H779">
-        <v>35.25</v>
+        <v>35.5</v>
       </c>
       <c r="K779">
-        <v>35.25</v>
-      </c>
-    </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="780" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
-        <v>44798</v>
+        <v>44796</v>
       </c>
       <c r="B780">
-        <v>28.5</v>
-      </c>
-      <c r="E780">
-        <v>35.5</v>
-      </c>
-      <c r="H780">
-        <v>35.5</v>
-      </c>
-      <c r="K780">
-        <v>35.25</v>
-      </c>
-    </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="781" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
-        <v>44797</v>
+        <v>44795</v>
       </c>
       <c r="B781">
-        <v>28.5</v>
-      </c>
-      <c r="E781">
-        <v>35.5</v>
-      </c>
-      <c r="H781">
-        <v>35.5</v>
-      </c>
-      <c r="K781">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="782" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
-        <v>44796</v>
+        <v>44792</v>
       </c>
       <c r="B782">
         <v>28</v>
       </c>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
-        <v>44795</v>
+        <v>44791</v>
       </c>
       <c r="B783">
         <v>28</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
-        <v>44792</v>
+        <v>44790</v>
       </c>
       <c r="B784">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
-        <v>44791</v>
+        <v>44789</v>
       </c>
       <c r="B785">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
-        <v>44790</v>
+        <v>44788</v>
       </c>
       <c r="B786">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
-        <v>44789</v>
+        <v>44785</v>
       </c>
       <c r="B787">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27.37</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
-        <v>44788</v>
+        <v>44784</v>
       </c>
       <c r="B788">
         <v>27.5</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
-        <v>44785</v>
+        <v>44783</v>
       </c>
       <c r="B789">
-        <v>27.37</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27.87</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
-        <v>44784</v>
+        <v>44781</v>
       </c>
       <c r="B790">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
-        <v>44783</v>
+        <v>44778</v>
       </c>
       <c r="B791">
-        <v>27.87</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
-        <v>44781</v>
+        <v>44777</v>
       </c>
       <c r="B792">
         <v>27.75</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
-        <v>44778</v>
+        <v>44776</v>
       </c>
       <c r="B793">
         <v>27.75</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
-        <v>44777</v>
+        <v>44775</v>
       </c>
       <c r="B794">
         <v>27.75</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
-        <v>44776</v>
+        <v>44774</v>
       </c>
       <c r="B795">
-        <v>27.75</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
-        <v>44775</v>
+        <v>44771</v>
       </c>
       <c r="B796">
-        <v>27.75</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
-        <v>44774</v>
+        <v>44770</v>
       </c>
       <c r="B797">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
-        <v>44771</v>
+        <v>44769</v>
       </c>
       <c r="B798">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
-        <v>44770</v>
+        <v>44768</v>
       </c>
       <c r="B799">
-        <v>28.25</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
-        <v>44769</v>
+        <v>44767</v>
       </c>
       <c r="B800">
         <v>28.75</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
-        <v>44768</v>
+        <v>44764</v>
       </c>
       <c r="B801">
-        <v>28.75</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
-        <v>44767</v>
+        <v>44763</v>
       </c>
       <c r="B802">
-        <v>28.75</v>
-      </c>
-    </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
-        <v>44764</v>
+        <v>44762</v>
       </c>
       <c r="B803">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
-        <v>44763</v>
+        <v>44761</v>
       </c>
       <c r="B804">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
-        <v>44762</v>
+        <v>44760</v>
       </c>
       <c r="B805">
         <v>30</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
-        <v>44761</v>
+        <v>44757</v>
       </c>
       <c r="B806">
         <v>30</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
-        <v>44760</v>
+        <v>44756</v>
       </c>
       <c r="B807">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
-        <v>44757</v>
+        <v>44755</v>
       </c>
       <c r="B808">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="B809">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
-        <v>44755</v>
+        <v>44753</v>
       </c>
       <c r="B810">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33.75</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="B811">
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
-        <v>44753</v>
+        <v>44749</v>
       </c>
       <c r="B812">
-        <v>33.75</v>
-      </c>
-    </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
-        <v>44750</v>
+        <v>44748</v>
       </c>
       <c r="B813">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
-        <v>44749</v>
+        <v>44747</v>
       </c>
       <c r="B814">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
-        <v>44748</v>
+        <v>44746</v>
       </c>
       <c r="B815">
         <v>35</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
-        <v>44747</v>
+        <v>44743</v>
       </c>
       <c r="B816">
         <v>35</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
-        <v>44746</v>
+        <v>44742</v>
       </c>
       <c r="B817">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
-        <v>44743</v>
+        <v>44741</v>
       </c>
       <c r="B818">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
-        <v>44742</v>
+        <v>44732</v>
       </c>
       <c r="B819">
         <v>35.25</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
-        <v>44741</v>
+        <v>44729</v>
       </c>
       <c r="B820">
-        <v>35.4</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
-        <v>44732</v>
+        <v>44728</v>
       </c>
       <c r="B821">
         <v>35.25</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
-        <v>44729</v>
+        <v>44727</v>
       </c>
       <c r="B822">
         <v>35.25</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
-        <v>44728</v>
+        <v>44726</v>
       </c>
       <c r="B823">
         <v>35.25</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
-        <v>44727</v>
+        <v>44725</v>
       </c>
       <c r="B824">
         <v>35.25</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
-        <v>44726</v>
+        <v>44722</v>
       </c>
       <c r="B825">
         <v>35.25</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
-        <v>44725</v>
+        <v>44721</v>
       </c>
       <c r="B826">
         <v>35.25</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="B827">
         <v>35.25</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
-        <v>44721</v>
+        <v>44719</v>
       </c>
       <c r="B828">
-        <v>35.25</v>
-      </c>
-    </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34.869999999999997</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
-        <v>44720</v>
+        <v>44718</v>
       </c>
       <c r="B829">
         <v>35.25</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
-        <v>44719</v>
+        <v>44715</v>
       </c>
       <c r="B830">
-        <v>34.869999999999997</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
-        <v>44718</v>
+        <v>44714</v>
       </c>
       <c r="B831">
-        <v>35.25</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A832" s="1">
-        <v>44715</v>
-      </c>
-      <c r="B832">
-        <v>35.25</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A833" s="1">
-        <v>44714</v>
-      </c>
-      <c r="B833">
         <v>35.5</v>
       </c>
     </row>
